--- a/medicine/Enfance/Robert_Cormier/Robert_Cormier.xlsx
+++ b/medicine/Enfance/Robert_Cormier/Robert_Cormier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Edmund Cormier, né le 17 janvier 1925 à Leominster (Massachusetts) et mort le 2 novembre 2000 à Boston (Massachusetts) est un écrivain, éditorialiste et reporter américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Cormier est né le 17 janvier 1925 à French Hill, le quartier francophone de Leominster, dans le Massachusetts aux États-Unis, où il a vécu toute sa vie. Il a eu 4 enfants, avec sa femme, Constance.
 Sa passion pour l'écriture lui vient d'un professeur qui le pousse à écrire, après la rédaction d'un poème en classe. Robert écrit alors une courte histoire pour son professeur, qui l'envoie secrètement à un magazine, afin de la faire publier. Six semaines plus tard, il reçoit un chèque de 75 $ de son professeur, qui lui annonce que le texte allait être publié. Après ses études, il devient journaliste, puis rédacteur en chef, avant de se mettre à écrire.
